--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,40 +40,40 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>horrible</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>illegal</t>
+    <t>creepy</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>creepy</t>
+    <t>boring</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>worse</t>
-  </si>
-  <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>stupid</t>
+    <t>guilty</t>
   </si>
   <si>
     <t>wrong</t>
@@ -82,48 +82,54 @@
     <t>disturbing</t>
   </si>
   <si>
+    <t>hate</t>
+  </si>
+  <si>
     <t>insane</t>
   </si>
   <si>
-    <t>shocking</t>
+    <t>sorry</t>
   </si>
   <si>
     <t>weird</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
     <t>scary</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>seriously</t>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>black</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
@@ -133,28 +139,25 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>powerful</t>
+    <t>free</t>
   </si>
   <si>
     <t>thanks</t>
@@ -166,22 +169,16 @@
     <t>wow</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
-    <t>highly</t>
+    <t>true</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>documentary</t>
+    <t>netflix</t>
   </si>
   <si>
     <t>media</t>
@@ -548,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,10 +553,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -620,10 +617,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -638,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -667,13 +664,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9393939393939394</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -685,10 +682,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -717,13 +714,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -735,10 +732,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -767,13 +764,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9230769230769231</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -785,19 +782,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>0.88</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L6">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M6">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -809,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -817,13 +814,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9230769230769231</v>
+        <v>0.9</v>
       </c>
       <c r="C7">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -835,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>0.8333333333333334</v>
+        <v>0.86</v>
       </c>
       <c r="L7">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="M7">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -859,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -867,13 +864,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8888888888888888</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -885,19 +882,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K8">
-        <v>0.7368421052631579</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="L8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -909,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -917,49 +914,49 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8666666666666667</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="L9">
+        <v>34</v>
+      </c>
+      <c r="M9">
+        <v>34</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>26</v>
-      </c>
-      <c r="D9">
-        <v>26</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>4</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9">
-        <v>0.6133333333333333</v>
-      </c>
-      <c r="L9">
-        <v>46</v>
-      </c>
-      <c r="M9">
-        <v>46</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -967,13 +964,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8181818181818182</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -988,16 +985,16 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
       <c r="L10">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="M10">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1009,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1017,49 +1014,49 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11">
+        <v>0.4827586206896552</v>
+      </c>
+      <c r="L11">
+        <v>14</v>
+      </c>
+      <c r="M11">
+        <v>14</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>15</v>
-      </c>
-      <c r="D11">
-        <v>15</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="L11">
-        <v>34</v>
-      </c>
-      <c r="M11">
-        <v>34</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1067,13 +1064,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.75</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1085,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>0.5172413793103449</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L12">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="M12">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1109,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1117,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.675</v>
+        <v>0.7</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1135,19 +1132,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K13">
-        <v>0.4736842105263158</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1159,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1170,10 +1167,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1185,19 +1182,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>0.3888888888888889</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1209,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1238,10 +1235,10 @@
         <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K15">
-        <v>0.3333333333333333</v>
+        <v>0.1875</v>
       </c>
       <c r="L15">
         <v>9</v>
@@ -1259,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1288,16 +1285,16 @@
         <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>0.2083333333333333</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="L16">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M16">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1309,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1320,10 +1317,10 @@
         <v>0.6</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1335,19 +1332,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>0.1692307692307692</v>
+        <v>0.09859154929577464</v>
       </c>
       <c r="L17">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M17">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1359,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1367,13 +1364,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1385,19 +1382,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>0.1463414634146341</v>
+        <v>0.06010928961748634</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="M18">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1409,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>35</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1417,13 +1414,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5384615384615384</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1435,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K19">
-        <v>0.1186440677966102</v>
+        <v>0.02592592592592593</v>
       </c>
       <c r="L19">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M19">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1459,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>52</v>
+        <v>526</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1467,38 +1464,38 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20">
+        <v>0.01506024096385542</v>
+      </c>
+      <c r="L20">
         <v>10</v>
       </c>
-      <c r="D20">
+      <c r="M20">
         <v>10</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>10</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K20">
-        <v>0.09836065573770492</v>
-      </c>
-      <c r="L20">
-        <v>6</v>
-      </c>
-      <c r="M20">
-        <v>6</v>
-      </c>
       <c r="N20">
         <v>1</v>
       </c>
@@ -1509,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>55</v>
+        <v>654</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1517,13 +1514,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1535,19 +1532,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K21">
-        <v>0.075591985428051</v>
+        <v>0.00576036866359447</v>
       </c>
       <c r="L21">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="M21">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1559,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1015</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1567,13 +1564,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4782608695652174</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C22">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1585,31 +1582,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>72</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K22">
-        <v>0.04240282685512368</v>
-      </c>
-      <c r="L22">
-        <v>12</v>
-      </c>
-      <c r="M22">
-        <v>12</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>271</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1617,13 +1590,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4468085106382979</v>
+        <v>0.5</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1635,31 +1608,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>26</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K23">
-        <v>0.02710843373493976</v>
-      </c>
-      <c r="L23">
-        <v>18</v>
-      </c>
-      <c r="M23">
-        <v>18</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>646</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1667,13 +1616,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4347826086956522</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1685,31 +1634,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>13</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K24">
-        <v>0.003456221198156682</v>
-      </c>
-      <c r="L24">
-        <v>6</v>
-      </c>
-      <c r="M24">
-        <v>6</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>1730</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1717,13 +1642,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4285714285714285</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1735,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1743,13 +1668,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4230769230769231</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1761,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1769,13 +1694,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3928571428571428</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="C27">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D27">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1787,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1795,13 +1720,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2916666666666667</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1813,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1821,13 +1746,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.282051282051282</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C29">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D29">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1839,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1847,13 +1772,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1153846153846154</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1865,7 +1790,59 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>69</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.25</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
